--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benst\Documents\Workspace\DXR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C653E-D3FB-494C-AC7C-72BDF2247332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12C87D-02DD-49BF-B39D-A12BC0AB1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="22932" yWindow="-84" windowWidth="23256" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -1870,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2007,6 +2007,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,48 +2017,83 @@
   <dxfs count="79">
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FF1E90FF"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF548235"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FF3CB371"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF548235"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB8860B"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFACD"/>
+          <bgColor rgb="FFFFD700"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFB8860B"/>
-        </left>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD700"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC0C0C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2187,66 +2225,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF0070C0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF1E90FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3CB371"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD700"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC0C0C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F5F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6347"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E1"/>
+          <bgColor rgb="FFDDEBF7"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color rgb="FFFF6347"/>
+          <color rgb="FF0070C0"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF548235"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF548235"/>
         </left>
       </border>
     </dxf>
@@ -2267,6 +2270,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF548235"/>
       </font>
       <fill>
@@ -2282,288 +2300,33 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFB8860B"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF4500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD700"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFFFFACD"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color rgb="FF0070C0"/>
+          <color rgb="FFB8860B"/>
         </left>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF8B4513"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF6347"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFACD"/>
+        <patternFill>
+          <bgColor rgb="FFFFE4E1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF6347"/>
+        </left>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF8B4513"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFACD"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF8B4513"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFACD"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF8B4513"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFACD"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF8B4513"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFACD"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FFDCDCDC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFDCDCDC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3186,6 +2949,224 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF8B4513"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFACD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF8B4513"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFACD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF8B4513"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFACD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF8B4513"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFACD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF8B4513"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFACD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFDCDCDC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFDCDCDC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -3518,6 +3499,28 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5678,63 +5681,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FA5018E-784A-4681-BFF4-A0D115F11364}" name="Comments" displayName="Comments" ref="A11:BB125" totalsRowShown="0" headerRowDxfId="30" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FA5018E-784A-4681-BFF4-A0D115F11364}" name="Comments" displayName="Comments" ref="A11:BB125" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A11:BB125" xr:uid="{3FA5018E-784A-4681-BFF4-A0D115F11364}"/>
   <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{8EF4E287-9EEB-48C5-9363-D1E2A7A6E2C2}" name="No." dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{AEA0D2CD-B5A6-435D-BB16-D060BD93C86D}" name="Notes" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{BFEEF901-D6C1-46DE-AE8F-FDDC12A359C6}" name="Action Items" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{A6D79FF6-2A1C-46EB-B979-7DA8CA89BCE0}" name="Action Assignee" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{F8211E10-151A-43EC-9BCC-FBA073D2F4D4}" name="Proposed Response" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{634E1472-DFFB-48A5-8CD3-5B71E95AA6EC}" name="Proposed Status" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{C82D8995-CCA3-4214-B71F-580516BE16C7}" name="State" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{7CC8A4FE-ADED-4C4D-9182-1163356869BF}" name="ID" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{D78C466D-E699-4567-BB74-1E2A1C007483}" name="Status" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{E7058A2F-F761-43F5-A790-829714682986}" name="Discipline" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{FD0F173F-B378-46FA-A75F-F34C0F4882FF}" name="Author" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{A1B12688-70D2-4D0B-89C5-B7E3372C67DD}" name="Email" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{80C2A43D-43C9-492C-AE08-8379289DEFDB}" name="Date" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{D2CA735C-1D0C-4567-BC88-0BCB86ABC870}" name="Source" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{1042A666-3993-4561-AF49-B942FFC5D9BE}" name="Reference" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{C9E6B832-8344-4005-B16F-6D089272DD30}" name="Sheet" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{8EBF63F6-E1D0-4077-83EA-10E0C8D0972C}" name="Spec" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{A05BA5C6-570E-4444-ABAE-586C13A5FEDC}" name="Section" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{D21C17F0-3481-43D2-8A6C-CCF61E73DAB7}" name="Comment" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{E5BF9C25-AAA4-4B2C-9562-97E0CF0A6376}" name="Critical" dataDxfId="66"/>
-    <tableColumn id="21" xr3:uid="{C5B755CB-CF96-48BF-961E-2151F9E49131}" name="Class" dataDxfId="65"/>
-    <tableColumn id="22" xr3:uid="{0DE05E9A-C093-4F05-A9F5-BAEB7F3F719C}" name="Att." dataDxfId="64"/>
-    <tableColumn id="23" xr3:uid="{2160E0FB-1935-4D65-9610-97728DD36331}" name="Days Open" dataDxfId="63"/>
-    <tableColumn id="24" xr3:uid="{2FC1C06E-F3C1-4CD0-BEB2-E029A85689BC}" name="Highest Resp." dataDxfId="62"/>
-    <tableColumn id="25" xr3:uid="{7A8569DF-0CFC-443D-9487-FF91BC4592FE}" name="Eval 1 Status" dataDxfId="61"/>
-    <tableColumn id="26" xr3:uid="{AA7FFBDE-200A-4A9C-BA63-197EACE87287}" name="Eval 1 Author" dataDxfId="60"/>
-    <tableColumn id="27" xr3:uid="{D119EF4A-6AD1-4A09-ACD0-8D5FBF61A9F2}" name="Eval 1 Email" dataDxfId="59"/>
-    <tableColumn id="28" xr3:uid="{56F5F10F-F289-4637-838A-1A328D73AF92}" name="Eval 1 Date" dataDxfId="58"/>
-    <tableColumn id="29" xr3:uid="{6045562D-6B2E-448E-A389-7F67C673A624}" name="Eval 1 Text" dataDxfId="57"/>
-    <tableColumn id="30" xr3:uid="{D2E6814C-6D20-491E-84FF-59AD47324102}" name="Eval 1 Att." dataDxfId="56"/>
-    <tableColumn id="31" xr3:uid="{342438CF-3EB5-4B34-A418-445C0162EDFA}" name="Eval 2 Status" dataDxfId="55"/>
-    <tableColumn id="32" xr3:uid="{21E4D590-62AD-495A-902A-7D9E7598AB57}" name="Eval 2 Author" dataDxfId="54"/>
-    <tableColumn id="33" xr3:uid="{94C40E89-F192-409E-B380-AA6A7B70EED7}" name="Eval 2 Email" dataDxfId="53"/>
-    <tableColumn id="34" xr3:uid="{6E0A6564-2B31-485C-8D02-7E9F888E4734}" name="Eval 2 Date" dataDxfId="52"/>
-    <tableColumn id="35" xr3:uid="{C44E9E7B-FCA2-46EA-9966-A26414E1EC88}" name="Eval 2 Text" dataDxfId="51"/>
-    <tableColumn id="36" xr3:uid="{27AA5D0E-F1BF-419F-8B8C-06778E736C8F}" name="Eval 2 Att." dataDxfId="50"/>
-    <tableColumn id="37" xr3:uid="{C1F82A75-1488-424D-B504-1554296033D8}" name="Eval 3 Status" dataDxfId="49"/>
-    <tableColumn id="38" xr3:uid="{5088063F-2285-4BEE-86FC-60B96906EE39}" name="Eval 3 Author" dataDxfId="48"/>
-    <tableColumn id="39" xr3:uid="{905BED94-D0FA-4C2F-B74A-8CAA5A35ABFC}" name="Eval 3 Email" dataDxfId="47"/>
-    <tableColumn id="40" xr3:uid="{EF9B5E03-E03D-4010-B84C-CC39028FCAFC}" name="Eval 3 Date" dataDxfId="46"/>
-    <tableColumn id="41" xr3:uid="{EC8CE73A-F86D-4E22-9902-AA2150DE67E1}" name="Eval 3 Text" dataDxfId="45"/>
-    <tableColumn id="42" xr3:uid="{1C48EA43-1C56-4B77-A56F-1998681843BA}" name="Eval 3 Att." dataDxfId="44"/>
-    <tableColumn id="43" xr3:uid="{233DAA54-7036-427B-BB2A-1A354B7E5E07}" name="BCheck 1 Status" dataDxfId="43"/>
-    <tableColumn id="44" xr3:uid="{27ACC154-0E83-4199-9C38-FE90CB9DF3FE}" name="BCheck 1 Author" dataDxfId="42"/>
-    <tableColumn id="45" xr3:uid="{79030A82-F49C-4A46-B3D9-89082F2249B6}" name="BCheck 1 Email" dataDxfId="41"/>
-    <tableColumn id="46" xr3:uid="{241BF8C1-A8A6-420C-A8B8-CBC1D869FBAF}" name="BCheck 1 Date" dataDxfId="40"/>
-    <tableColumn id="47" xr3:uid="{4102FB7B-FEAF-4C54-8323-1B97C9DFA28F}" name="BCheck 1 Text" dataDxfId="39"/>
-    <tableColumn id="48" xr3:uid="{C20F65F3-BC37-48FE-967E-D25257EE561B}" name="BCheck 1 Att." dataDxfId="38"/>
-    <tableColumn id="49" xr3:uid="{C7ABBEAE-05CF-4970-89C8-675FF1CEFCA2}" name="BCheck 2 Status" dataDxfId="37"/>
-    <tableColumn id="50" xr3:uid="{C194AD67-26E0-4B7D-8E6F-B9A06E99CD8D}" name="BCheck 2 Author" dataDxfId="36"/>
-    <tableColumn id="51" xr3:uid="{49F049C4-5155-4684-95B2-48A7C595C2B7}" name="BCheck 2 Email" dataDxfId="35"/>
-    <tableColumn id="52" xr3:uid="{B33947EE-E8E7-452E-916C-916251D61880}" name="BCheck 2 Date" dataDxfId="34"/>
-    <tableColumn id="53" xr3:uid="{8C7C465F-9BFF-41C0-A3CE-FC104082BA33}" name="BCheck 2 Text" dataDxfId="33"/>
-    <tableColumn id="54" xr3:uid="{D6807B25-9C41-49AC-A48E-FBF2669C5064}" name="BCheck 2 Att." dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{8EF4E287-9EEB-48C5-9363-D1E2A7A6E2C2}" name="No." dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{AEA0D2CD-B5A6-435D-BB16-D060BD93C86D}" name="Notes" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{BFEEF901-D6C1-46DE-AE8F-FDDC12A359C6}" name="Action Items" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A6D79FF6-2A1C-46EB-B979-7DA8CA89BCE0}" name="Action Assignee" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{F8211E10-151A-43EC-9BCC-FBA073D2F4D4}" name="Proposed Response" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{634E1472-DFFB-48A5-8CD3-5B71E95AA6EC}" name="Proposed Status" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{C82D8995-CCA3-4214-B71F-580516BE16C7}" name="State" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{7CC8A4FE-ADED-4C4D-9182-1163356869BF}" name="ID" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{D78C466D-E699-4567-BB74-1E2A1C007483}" name="Status" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{E7058A2F-F761-43F5-A790-829714682986}" name="Discipline" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{FD0F173F-B378-46FA-A75F-F34C0F4882FF}" name="Author" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{A1B12688-70D2-4D0B-89C5-B7E3372C67DD}" name="Email" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{80C2A43D-43C9-492C-AE08-8379289DEFDB}" name="Date" dataDxfId="64"/>
+    <tableColumn id="14" xr3:uid="{D2CA735C-1D0C-4567-BC88-0BCB86ABC870}" name="Source" dataDxfId="63"/>
+    <tableColumn id="15" xr3:uid="{1042A666-3993-4561-AF49-B942FFC5D9BE}" name="Reference" dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{C9E6B832-8344-4005-B16F-6D089272DD30}" name="Sheet" dataDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{8EBF63F6-E1D0-4077-83EA-10E0C8D0972C}" name="Spec" dataDxfId="60"/>
+    <tableColumn id="18" xr3:uid="{A05BA5C6-570E-4444-ABAE-586C13A5FEDC}" name="Section" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{D21C17F0-3481-43D2-8A6C-CCF61E73DAB7}" name="Comment" dataDxfId="58"/>
+    <tableColumn id="20" xr3:uid="{E5BF9C25-AAA4-4B2C-9562-97E0CF0A6376}" name="Critical" dataDxfId="57"/>
+    <tableColumn id="21" xr3:uid="{C5B755CB-CF96-48BF-961E-2151F9E49131}" name="Class" dataDxfId="56"/>
+    <tableColumn id="22" xr3:uid="{0DE05E9A-C093-4F05-A9F5-BAEB7F3F719C}" name="Att." dataDxfId="55"/>
+    <tableColumn id="23" xr3:uid="{2160E0FB-1935-4D65-9610-97728DD36331}" name="Days Open" dataDxfId="54"/>
+    <tableColumn id="24" xr3:uid="{2FC1C06E-F3C1-4CD0-BEB2-E029A85689BC}" name="Highest Resp." dataDxfId="53"/>
+    <tableColumn id="25" xr3:uid="{7A8569DF-0CFC-443D-9487-FF91BC4592FE}" name="Eval 1 Status" dataDxfId="52"/>
+    <tableColumn id="26" xr3:uid="{AA7FFBDE-200A-4A9C-BA63-197EACE87287}" name="Eval 1 Author" dataDxfId="51"/>
+    <tableColumn id="27" xr3:uid="{D119EF4A-6AD1-4A09-ACD0-8D5FBF61A9F2}" name="Eval 1 Email" dataDxfId="50"/>
+    <tableColumn id="28" xr3:uid="{56F5F10F-F289-4637-838A-1A328D73AF92}" name="Eval 1 Date" dataDxfId="49"/>
+    <tableColumn id="29" xr3:uid="{6045562D-6B2E-448E-A389-7F67C673A624}" name="Eval 1 Text" dataDxfId="48"/>
+    <tableColumn id="30" xr3:uid="{D2E6814C-6D20-491E-84FF-59AD47324102}" name="Eval 1 Att." dataDxfId="47"/>
+    <tableColumn id="31" xr3:uid="{342438CF-3EB5-4B34-A418-445C0162EDFA}" name="Eval 2 Status" dataDxfId="46"/>
+    <tableColumn id="32" xr3:uid="{21E4D590-62AD-495A-902A-7D9E7598AB57}" name="Eval 2 Author" dataDxfId="45"/>
+    <tableColumn id="33" xr3:uid="{94C40E89-F192-409E-B380-AA6A7B70EED7}" name="Eval 2 Email" dataDxfId="44"/>
+    <tableColumn id="34" xr3:uid="{6E0A6564-2B31-485C-8D02-7E9F888E4734}" name="Eval 2 Date" dataDxfId="43"/>
+    <tableColumn id="35" xr3:uid="{C44E9E7B-FCA2-46EA-9966-A26414E1EC88}" name="Eval 2 Text" dataDxfId="42"/>
+    <tableColumn id="36" xr3:uid="{27AA5D0E-F1BF-419F-8B8C-06778E736C8F}" name="Eval 2 Att." dataDxfId="41"/>
+    <tableColumn id="37" xr3:uid="{C1F82A75-1488-424D-B504-1554296033D8}" name="Eval 3 Status" dataDxfId="40"/>
+    <tableColumn id="38" xr3:uid="{5088063F-2285-4BEE-86FC-60B96906EE39}" name="Eval 3 Author" dataDxfId="39"/>
+    <tableColumn id="39" xr3:uid="{905BED94-D0FA-4C2F-B74A-8CAA5A35ABFC}" name="Eval 3 Email" dataDxfId="38"/>
+    <tableColumn id="40" xr3:uid="{EF9B5E03-E03D-4010-B84C-CC39028FCAFC}" name="Eval 3 Date" dataDxfId="37"/>
+    <tableColumn id="41" xr3:uid="{EC8CE73A-F86D-4E22-9902-AA2150DE67E1}" name="Eval 3 Text" dataDxfId="36"/>
+    <tableColumn id="42" xr3:uid="{1C48EA43-1C56-4B77-A56F-1998681843BA}" name="Eval 3 Att." dataDxfId="35"/>
+    <tableColumn id="43" xr3:uid="{233DAA54-7036-427B-BB2A-1A354B7E5E07}" name="BCheck 1 Status" dataDxfId="34"/>
+    <tableColumn id="44" xr3:uid="{27ACC154-0E83-4199-9C38-FE90CB9DF3FE}" name="BCheck 1 Author" dataDxfId="33"/>
+    <tableColumn id="45" xr3:uid="{79030A82-F49C-4A46-B3D9-89082F2249B6}" name="BCheck 1 Email" dataDxfId="32"/>
+    <tableColumn id="46" xr3:uid="{241BF8C1-A8A6-420C-A8B8-CBC1D869FBAF}" name="BCheck 1 Date" dataDxfId="31"/>
+    <tableColumn id="47" xr3:uid="{4102FB7B-FEAF-4C54-8323-1B97C9DFA28F}" name="BCheck 1 Text" dataDxfId="30"/>
+    <tableColumn id="48" xr3:uid="{C20F65F3-BC37-48FE-967E-D25257EE561B}" name="BCheck 1 Att." dataDxfId="29"/>
+    <tableColumn id="49" xr3:uid="{C7ABBEAE-05CF-4970-89C8-675FF1CEFCA2}" name="BCheck 2 Status" dataDxfId="28"/>
+    <tableColumn id="50" xr3:uid="{C194AD67-26E0-4B7D-8E6F-B9A06E99CD8D}" name="BCheck 2 Author" dataDxfId="27"/>
+    <tableColumn id="51" xr3:uid="{49F049C4-5155-4684-95B2-48A7C595C2B7}" name="BCheck 2 Email" dataDxfId="26"/>
+    <tableColumn id="52" xr3:uid="{B33947EE-E8E7-452E-916C-916251D61880}" name="BCheck 2 Date" dataDxfId="25"/>
+    <tableColumn id="53" xr3:uid="{8C7C465F-9BFF-41C0-A3CE-FC104082BA33}" name="BCheck 2 Text" dataDxfId="24"/>
+    <tableColumn id="54" xr3:uid="{D6807B25-9C41-49AC-A48E-FBF2669C5064}" name="BCheck 2 Att." dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6061,14 +6064,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>423</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>425</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>427</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>431</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>433</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="249.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="243" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>435</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6149,57 +6152,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4E718-BA54-47DB-93F0-23D23B2960D1}">
   <dimension ref="A1:BC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.15" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.640625" style="29" customWidth="1"/>
-    <col min="2" max="5" width="20.640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.640625" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="0" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.640625" customWidth="1"/>
-    <col min="10" max="11" width="20.640625" customWidth="1"/>
-    <col min="12" max="13" width="10.640625" customWidth="1"/>
-    <col min="14" max="15" width="20.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="20.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="50.640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="10.640625" customWidth="1"/>
-    <col min="22" max="22" width="5.640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="29" customWidth="1"/>
+    <col min="2" max="5" width="20.5703125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.5703125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" style="29" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="15" width="20.5703125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.5703125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="20.5703125" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="50.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="11.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="20.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="10.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="50.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="10.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="50.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="11.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="40" width="10.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="50.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="14.35546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="46" width="10.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="50.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="14.35546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="52" width="10.640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="50.640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="8.640625" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="50.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="11.85546875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="50.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="11.85546875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="40" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="50.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="14.28515625" style="6" customWidth="1"/>
+    <col min="44" max="44" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="46" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="50.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="14.28515625" style="6" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="52" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="50.5703125" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="8.5703125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>69848</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>511143</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>235411</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6239,7 +6241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>45890.9062037037</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6255,13 +6257,210 @@
         <v>45892.36142361111</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="2">
+        <f>COLUMN()-7</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9:BB9" si="0">COLUMN()-7</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AX9" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AZ9" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="BA9" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="BB9" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>421</v>
       </c>
@@ -6305,7 +6504,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="27" customFormat="1" ht="24.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:55" s="27" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>413</v>
       </c>
@@ -6469,7 +6668,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="81" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>1</v>
       </c>
@@ -6565,7 +6764,7 @@
       <c r="BA12" s="12"/>
       <c r="BB12" s="10"/>
     </row>
-    <row r="13" spans="1:55" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>2</v>
       </c>
@@ -6669,7 +6868,7 @@
       <c r="BA13" s="16"/>
       <c r="BB13" s="14"/>
     </row>
-    <row r="14" spans="1:55" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>3</v>
       </c>
@@ -6773,7 +6972,7 @@
       <c r="BA14" s="16"/>
       <c r="BB14" s="14"/>
     </row>
-    <row r="15" spans="1:55" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" ht="54" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>4</v>
       </c>
@@ -6875,7 +7074,7 @@
       <c r="BA15" s="16"/>
       <c r="BB15" s="14"/>
     </row>
-    <row r="16" spans="1:55" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>5</v>
       </c>
@@ -6977,7 +7176,7 @@
       <c r="BA16" s="16"/>
       <c r="BB16" s="14"/>
     </row>
-    <row r="17" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>6</v>
       </c>
@@ -7095,7 +7294,7 @@
       </c>
       <c r="BB17" s="14"/>
     </row>
-    <row r="18" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>7</v>
       </c>
@@ -7199,7 +7398,7 @@
       <c r="BA18" s="16"/>
       <c r="BB18" s="14"/>
     </row>
-    <row r="19" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>8</v>
       </c>
@@ -7303,7 +7502,7 @@
       <c r="BA19" s="16"/>
       <c r="BB19" s="14"/>
     </row>
-    <row r="20" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>9</v>
       </c>
@@ -7405,7 +7604,7 @@
       <c r="BA20" s="16"/>
       <c r="BB20" s="14"/>
     </row>
-    <row r="21" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>10</v>
       </c>
@@ -7509,7 +7708,7 @@
       <c r="BA21" s="16"/>
       <c r="BB21" s="14"/>
     </row>
-    <row r="22" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>11</v>
       </c>
@@ -7613,7 +7812,7 @@
       <c r="BA22" s="16"/>
       <c r="BB22" s="14"/>
     </row>
-    <row r="23" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>12</v>
       </c>
@@ -7717,7 +7916,7 @@
       <c r="BA23" s="16"/>
       <c r="BB23" s="14"/>
     </row>
-    <row r="24" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>13</v>
       </c>
@@ -7821,7 +8020,7 @@
       <c r="BA24" s="16"/>
       <c r="BB24" s="14"/>
     </row>
-    <row r="25" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>14</v>
       </c>
@@ -7913,7 +8112,7 @@
       <c r="BA25" s="16"/>
       <c r="BB25" s="14"/>
     </row>
-    <row r="26" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>15</v>
       </c>
@@ -8033,7 +8232,7 @@
       </c>
       <c r="BB26" s="14"/>
     </row>
-    <row r="27" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>16</v>
       </c>
@@ -8121,7 +8320,7 @@
       <c r="BA27" s="16"/>
       <c r="BB27" s="14"/>
     </row>
-    <row r="28" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>17</v>
       </c>
@@ -8211,7 +8410,7 @@
       <c r="BA28" s="16"/>
       <c r="BB28" s="14"/>
     </row>
-    <row r="29" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>18</v>
       </c>
@@ -8315,7 +8514,7 @@
       <c r="BA29" s="16"/>
       <c r="BB29" s="14"/>
     </row>
-    <row r="30" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>19</v>
       </c>
@@ -8419,7 +8618,7 @@
       <c r="BA30" s="16"/>
       <c r="BB30" s="14"/>
     </row>
-    <row r="31" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>20</v>
       </c>
@@ -8513,7 +8712,7 @@
       <c r="BA31" s="16"/>
       <c r="BB31" s="14"/>
     </row>
-    <row r="32" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>21</v>
       </c>
@@ -8605,7 +8804,7 @@
       <c r="BA32" s="16"/>
       <c r="BB32" s="14"/>
     </row>
-    <row r="33" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>22</v>
       </c>
@@ -8725,7 +8924,7 @@
       </c>
       <c r="BB33" s="14"/>
     </row>
-    <row r="34" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>23</v>
       </c>
@@ -8825,7 +9024,7 @@
       <c r="BA34" s="16"/>
       <c r="BB34" s="14"/>
     </row>
-    <row r="35" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>24</v>
       </c>
@@ -8923,7 +9122,7 @@
       <c r="BA35" s="16"/>
       <c r="BB35" s="14"/>
     </row>
-    <row r="36" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>25</v>
       </c>
@@ -9021,7 +9220,7 @@
       <c r="BA36" s="16"/>
       <c r="BB36" s="14"/>
     </row>
-    <row r="37" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>26</v>
       </c>
@@ -9125,7 +9324,7 @@
       <c r="BA37" s="16"/>
       <c r="BB37" s="14"/>
     </row>
-    <row r="38" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>27</v>
       </c>
@@ -9217,7 +9416,7 @@
       <c r="BA38" s="16"/>
       <c r="BB38" s="14"/>
     </row>
-    <row r="39" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>28</v>
       </c>
@@ -9303,7 +9502,7 @@
       <c r="BA39" s="16"/>
       <c r="BB39" s="14"/>
     </row>
-    <row r="40" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>29</v>
       </c>
@@ -9391,7 +9590,7 @@
       <c r="BA40" s="16"/>
       <c r="BB40" s="14"/>
     </row>
-    <row r="41" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>30</v>
       </c>
@@ -9495,7 +9694,7 @@
       <c r="BA41" s="16"/>
       <c r="BB41" s="14"/>
     </row>
-    <row r="42" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>31</v>
       </c>
@@ -9601,7 +9800,7 @@
       <c r="BA42" s="16"/>
       <c r="BB42" s="14"/>
     </row>
-    <row r="43" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>32</v>
       </c>
@@ -9697,7 +9896,7 @@
       <c r="BA43" s="16"/>
       <c r="BB43" s="14"/>
     </row>
-    <row r="44" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>33</v>
       </c>
@@ -9793,7 +9992,7 @@
       <c r="BA44" s="16"/>
       <c r="BB44" s="14"/>
     </row>
-    <row r="45" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>34</v>
       </c>
@@ -9887,7 +10086,7 @@
       <c r="BA45" s="16"/>
       <c r="BB45" s="14"/>
     </row>
-    <row r="46" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>35</v>
       </c>
@@ -9985,7 +10184,7 @@
       <c r="BA46" s="16"/>
       <c r="BB46" s="14"/>
     </row>
-    <row r="47" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>36</v>
       </c>
@@ -10073,7 +10272,7 @@
       <c r="BA47" s="16"/>
       <c r="BB47" s="14"/>
     </row>
-    <row r="48" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>37</v>
       </c>
@@ -10161,7 +10360,7 @@
       <c r="BA48" s="16"/>
       <c r="BB48" s="14"/>
     </row>
-    <row r="49" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>38</v>
       </c>
@@ -10249,7 +10448,7 @@
       <c r="BA49" s="16"/>
       <c r="BB49" s="14"/>
     </row>
-    <row r="50" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>39</v>
       </c>
@@ -10337,7 +10536,7 @@
       <c r="BA50" s="16"/>
       <c r="BB50" s="14"/>
     </row>
-    <row r="51" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>40</v>
       </c>
@@ -10427,7 +10626,7 @@
       <c r="BA51" s="16"/>
       <c r="BB51" s="14"/>
     </row>
-    <row r="52" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>41</v>
       </c>
@@ -10515,7 +10714,7 @@
       <c r="BA52" s="16"/>
       <c r="BB52" s="14"/>
     </row>
-    <row r="53" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>42</v>
       </c>
@@ -10603,7 +10802,7 @@
       <c r="BA53" s="16"/>
       <c r="BB53" s="14"/>
     </row>
-    <row r="54" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>43</v>
       </c>
@@ -10695,7 +10894,7 @@
       <c r="BA54" s="16"/>
       <c r="BB54" s="14"/>
     </row>
-    <row r="55" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <v>44</v>
       </c>
@@ -10787,7 +10986,7 @@
       <c r="BA55" s="16"/>
       <c r="BB55" s="14"/>
     </row>
-    <row r="56" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>45</v>
       </c>
@@ -10913,7 +11112,7 @@
       </c>
       <c r="BB56" s="14"/>
     </row>
-    <row r="57" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>46</v>
       </c>
@@ -11037,7 +11236,7 @@
       </c>
       <c r="BB57" s="14"/>
     </row>
-    <row r="58" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>47</v>
       </c>
@@ -11141,7 +11340,7 @@
       <c r="BA58" s="16"/>
       <c r="BB58" s="14"/>
     </row>
-    <row r="59" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>48</v>
       </c>
@@ -11237,7 +11436,7 @@
       <c r="BA59" s="16"/>
       <c r="BB59" s="14"/>
     </row>
-    <row r="60" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>49</v>
       </c>
@@ -11329,7 +11528,7 @@
       <c r="BA60" s="16"/>
       <c r="BB60" s="14"/>
     </row>
-    <row r="61" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>50</v>
       </c>
@@ -11417,7 +11616,7 @@
       <c r="BA61" s="16"/>
       <c r="BB61" s="14"/>
     </row>
-    <row r="62" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>51</v>
       </c>
@@ -11505,7 +11704,7 @@
       <c r="BA62" s="16"/>
       <c r="BB62" s="14"/>
     </row>
-    <row r="63" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>52</v>
       </c>
@@ -11593,7 +11792,7 @@
       <c r="BA63" s="16"/>
       <c r="BB63" s="14"/>
     </row>
-    <row r="64" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>53</v>
       </c>
@@ -11679,7 +11878,7 @@
       <c r="BA64" s="16"/>
       <c r="BB64" s="14"/>
     </row>
-    <row r="65" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <v>54</v>
       </c>
@@ -11765,7 +11964,7 @@
       <c r="BA65" s="16"/>
       <c r="BB65" s="14"/>
     </row>
-    <row r="66" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <v>55</v>
       </c>
@@ -11853,7 +12052,7 @@
       <c r="BA66" s="16"/>
       <c r="BB66" s="14"/>
     </row>
-    <row r="67" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <v>56</v>
       </c>
@@ -11941,7 +12140,7 @@
       <c r="BA67" s="16"/>
       <c r="BB67" s="14"/>
     </row>
-    <row r="68" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>57</v>
       </c>
@@ -12027,7 +12226,7 @@
       <c r="BA68" s="16"/>
       <c r="BB68" s="14"/>
     </row>
-    <row r="69" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <v>58</v>
       </c>
@@ -12115,7 +12314,7 @@
       <c r="BA69" s="16"/>
       <c r="BB69" s="14"/>
     </row>
-    <row r="70" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>59</v>
       </c>
@@ -12203,7 +12402,7 @@
       <c r="BA70" s="16"/>
       <c r="BB70" s="14"/>
     </row>
-    <row r="71" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>60</v>
       </c>
@@ -12291,7 +12490,7 @@
       <c r="BA71" s="16"/>
       <c r="BB71" s="14"/>
     </row>
-    <row r="72" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>61</v>
       </c>
@@ -12379,7 +12578,7 @@
       <c r="BA72" s="16"/>
       <c r="BB72" s="14"/>
     </row>
-    <row r="73" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <v>62</v>
       </c>
@@ -12467,7 +12666,7 @@
       <c r="BA73" s="16"/>
       <c r="BB73" s="14"/>
     </row>
-    <row r="74" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>63</v>
       </c>
@@ -12557,7 +12756,7 @@
       <c r="BA74" s="16"/>
       <c r="BB74" s="14"/>
     </row>
-    <row r="75" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <v>64</v>
       </c>
@@ -12651,7 +12850,7 @@
       <c r="BA75" s="16"/>
       <c r="BB75" s="14"/>
     </row>
-    <row r="76" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>65</v>
       </c>
@@ -12743,7 +12942,7 @@
       <c r="BA76" s="16"/>
       <c r="BB76" s="14"/>
     </row>
-    <row r="77" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <v>66</v>
       </c>
@@ -12835,7 +13034,7 @@
       <c r="BA77" s="16"/>
       <c r="BB77" s="14"/>
     </row>
-    <row r="78" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>67</v>
       </c>
@@ -12927,7 +13126,7 @@
       <c r="BA78" s="16"/>
       <c r="BB78" s="14"/>
     </row>
-    <row r="79" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <v>68</v>
       </c>
@@ -13017,7 +13216,7 @@
       <c r="BA79" s="16"/>
       <c r="BB79" s="14"/>
     </row>
-    <row r="80" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>69</v>
       </c>
@@ -13105,7 +13304,7 @@
       <c r="BA80" s="16"/>
       <c r="BB80" s="14"/>
     </row>
-    <row r="81" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
         <v>70</v>
       </c>
@@ -13201,7 +13400,7 @@
       <c r="BA81" s="16"/>
       <c r="BB81" s="14"/>
     </row>
-    <row r="82" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <v>71</v>
       </c>
@@ -13297,7 +13496,7 @@
       <c r="BA82" s="16"/>
       <c r="BB82" s="14"/>
     </row>
-    <row r="83" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
         <v>72</v>
       </c>
@@ -13399,7 +13598,7 @@
       <c r="BA83" s="16"/>
       <c r="BB83" s="14"/>
     </row>
-    <row r="84" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>73</v>
       </c>
@@ -13487,7 +13686,7 @@
       <c r="BA84" s="16"/>
       <c r="BB84" s="14"/>
     </row>
-    <row r="85" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
         <v>74</v>
       </c>
@@ -13581,7 +13780,7 @@
       <c r="BA85" s="16"/>
       <c r="BB85" s="14"/>
     </row>
-    <row r="86" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <v>75</v>
       </c>
@@ -13667,7 +13866,7 @@
       <c r="BA86" s="16"/>
       <c r="BB86" s="14"/>
     </row>
-    <row r="87" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <v>76</v>
       </c>
@@ -13755,7 +13954,7 @@
       <c r="BA87" s="16"/>
       <c r="BB87" s="14"/>
     </row>
-    <row r="88" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <v>77</v>
       </c>
@@ -13841,7 +14040,7 @@
       <c r="BA88" s="16"/>
       <c r="BB88" s="14"/>
     </row>
-    <row r="89" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <v>78</v>
       </c>
@@ -13927,7 +14126,7 @@
       <c r="BA89" s="16"/>
       <c r="BB89" s="14"/>
     </row>
-    <row r="90" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <v>79</v>
       </c>
@@ -14013,7 +14212,7 @@
       <c r="BA90" s="16"/>
       <c r="BB90" s="14"/>
     </row>
-    <row r="91" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
         <v>80</v>
       </c>
@@ -14099,7 +14298,7 @@
       <c r="BA91" s="16"/>
       <c r="BB91" s="14"/>
     </row>
-    <row r="92" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <v>81</v>
       </c>
@@ -14187,7 +14386,7 @@
       <c r="BA92" s="16"/>
       <c r="BB92" s="14"/>
     </row>
-    <row r="93" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
         <v>82</v>
       </c>
@@ -14273,7 +14472,7 @@
       <c r="BA93" s="16"/>
       <c r="BB93" s="14"/>
     </row>
-    <row r="94" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <v>83</v>
       </c>
@@ -14359,7 +14558,7 @@
       <c r="BA94" s="16"/>
       <c r="BB94" s="14"/>
     </row>
-    <row r="95" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
         <v>84</v>
       </c>
@@ -14449,7 +14648,7 @@
       <c r="BA95" s="16"/>
       <c r="BB95" s="14"/>
     </row>
-    <row r="96" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
         <v>85</v>
       </c>
@@ -14537,7 +14736,7 @@
       <c r="BA96" s="16"/>
       <c r="BB96" s="14"/>
     </row>
-    <row r="97" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
         <v>86</v>
       </c>
@@ -14623,7 +14822,7 @@
       <c r="BA97" s="16"/>
       <c r="BB97" s="14"/>
     </row>
-    <row r="98" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33">
         <v>87</v>
       </c>
@@ -14709,7 +14908,7 @@
       <c r="BA98" s="16"/>
       <c r="BB98" s="14"/>
     </row>
-    <row r="99" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="33">
         <v>88</v>
       </c>
@@ -14795,7 +14994,7 @@
       <c r="BA99" s="16"/>
       <c r="BB99" s="14"/>
     </row>
-    <row r="100" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="33">
         <v>89</v>
       </c>
@@ -14881,7 +15080,7 @@
       <c r="BA100" s="16"/>
       <c r="BB100" s="14"/>
     </row>
-    <row r="101" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
         <v>90</v>
       </c>
@@ -14967,7 +15166,7 @@
       <c r="BA101" s="16"/>
       <c r="BB101" s="14"/>
     </row>
-    <row r="102" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
         <v>91</v>
       </c>
@@ -15053,7 +15252,7 @@
       <c r="BA102" s="16"/>
       <c r="BB102" s="14"/>
     </row>
-    <row r="103" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33">
         <v>92</v>
       </c>
@@ -15139,7 +15338,7 @@
       <c r="BA103" s="16"/>
       <c r="BB103" s="14"/>
     </row>
-    <row r="104" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="33">
         <v>93</v>
       </c>
@@ -15225,7 +15424,7 @@
       <c r="BA104" s="16"/>
       <c r="BB104" s="14"/>
     </row>
-    <row r="105" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
         <v>94</v>
       </c>
@@ -15311,7 +15510,7 @@
       <c r="BA105" s="16"/>
       <c r="BB105" s="14"/>
     </row>
-    <row r="106" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
         <v>95</v>
       </c>
@@ -15397,7 +15596,7 @@
       <c r="BA106" s="16"/>
       <c r="BB106" s="14"/>
     </row>
-    <row r="107" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
         <v>96</v>
       </c>
@@ -15483,7 +15682,7 @@
       <c r="BA107" s="16"/>
       <c r="BB107" s="14"/>
     </row>
-    <row r="108" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A108" s="33">
         <v>97</v>
       </c>
@@ -15579,7 +15778,7 @@
       <c r="BA108" s="16"/>
       <c r="BB108" s="14"/>
     </row>
-    <row r="109" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
         <v>98</v>
       </c>
@@ -15669,7 +15868,7 @@
       <c r="BA109" s="16"/>
       <c r="BB109" s="14"/>
     </row>
-    <row r="110" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A110" s="33">
         <v>99</v>
       </c>
@@ -15759,7 +15958,7 @@
       <c r="BA110" s="16"/>
       <c r="BB110" s="14"/>
     </row>
-    <row r="111" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
         <v>100</v>
       </c>
@@ -15849,7 +16048,7 @@
       <c r="BA111" s="16"/>
       <c r="BB111" s="14"/>
     </row>
-    <row r="112" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A112" s="33">
         <v>101</v>
       </c>
@@ -15939,7 +16138,7 @@
       <c r="BA112" s="16"/>
       <c r="BB112" s="14"/>
     </row>
-    <row r="113" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A113" s="33">
         <v>102</v>
       </c>
@@ -16027,7 +16226,7 @@
       <c r="BA113" s="16"/>
       <c r="BB113" s="14"/>
     </row>
-    <row r="114" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="33">
         <v>103</v>
       </c>
@@ -16113,7 +16312,7 @@
       <c r="BA114" s="16"/>
       <c r="BB114" s="14"/>
     </row>
-    <row r="115" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="33">
         <v>104</v>
       </c>
@@ -16199,7 +16398,7 @@
       <c r="BA115" s="16"/>
       <c r="BB115" s="14"/>
     </row>
-    <row r="116" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A116" s="33">
         <v>105</v>
       </c>
@@ -16299,7 +16498,7 @@
       <c r="BA116" s="16"/>
       <c r="BB116" s="14"/>
     </row>
-    <row r="117" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A117" s="33">
         <v>106</v>
       </c>
@@ -16391,7 +16590,7 @@
       <c r="BA117" s="16"/>
       <c r="BB117" s="14"/>
     </row>
-    <row r="118" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33">
         <v>107</v>
       </c>
@@ -16483,7 +16682,7 @@
       <c r="BA118" s="16"/>
       <c r="BB118" s="14"/>
     </row>
-    <row r="119" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33">
         <v>108</v>
       </c>
@@ -16573,7 +16772,7 @@
       <c r="BA119" s="16"/>
       <c r="BB119" s="14"/>
     </row>
-    <row r="120" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A120" s="33">
         <v>109</v>
       </c>
@@ -16663,7 +16862,7 @@
       <c r="BA120" s="16"/>
       <c r="BB120" s="14"/>
     </row>
-    <row r="121" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33">
         <v>110</v>
       </c>
@@ -16751,7 +16950,7 @@
       <c r="BA121" s="16"/>
       <c r="BB121" s="14"/>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="33">
         <v>111</v>
       </c>
@@ -16837,7 +17036,7 @@
       <c r="BA122" s="16"/>
       <c r="BB122" s="14"/>
     </row>
-    <row r="123" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A123" s="33">
         <v>112</v>
       </c>
@@ -16923,7 +17122,7 @@
       <c r="BA123" s="16"/>
       <c r="BB123" s="14"/>
     </row>
-    <row r="124" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A124" s="33">
         <v>113</v>
       </c>
@@ -17023,7 +17222,7 @@
       <c r="BA124" s="16"/>
       <c r="BB124" s="14"/>
     </row>
-    <row r="125" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <v>114</v>
       </c>
@@ -17112,93 +17311,87 @@
       <c r="BB125" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F12:F125">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+      <formula>LOWER(F12)="check and resolve"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+      <formula>LOWER(F12)="non-concur"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+      <formula>LOWER(F12)="for information only"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>LOWER(F12)="concur"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>LOWER(F12)="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+      <formula>LOWER(F12)="closed"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
+      <formula>LOWER(F12)="close without comment"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G125">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+      <formula>IF(LOWER($G12)="Working",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+      <formula>IF(LOWER($G12)="Ready",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+      <formula>IF(LOWER($G12)="Done",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+      <formula>IF(LOWER($G12)="N/A",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H12:W125 Y12:BB125">
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+      <formula>LOWER(H12)="check and resolve"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+      <formula>LOWER(H12)="non-concur"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>LOWER(H12)="for information only"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>LOWER(H12)="concur"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H12:BB125">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>LOWER($I12)="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T125">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>LOWER(T12:T125)="yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U12:U125">
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>LOWER(U12:U125)="cui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>LOWER(U12:U125)="unclassified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:T125">
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
-      <formula>LOWER(T12:T125)="yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:W125 Y12:BB125">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
-      <formula>LOWER(H12)="for information only"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:W125 Y12:BB125">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>LOWER(H12)="non-concur"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:W125 Y12:BB125">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>LOWER(H12)="check and resolve"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:BB125">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>LOWER($I12)="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X12:X125">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
       <formula>LOWER(X12:X125)="check and resolve"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>LOWER(X12:X125)="non-concur"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>LOWER(X12:X125)="for information only"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>LOWER(X12:X125)="concur"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G125">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
-      <formula>IF(LOWER($G12)="Working",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
-      <formula>IF(LOWER($G12)="Ready",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
-      <formula>IF(LOWER($G12)="Done",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
-      <formula>IF(LOWER($G12)="N/A",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F125">
-    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
-      <formula>LOWER(F12)="check and resolve"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="18" stopIfTrue="1">
-      <formula>LOWER(F12)="non-concur"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
-      <formula>LOWER(F12)="for information only"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>LOWER(F12)="concur"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="21" stopIfTrue="1">
-      <formula>LOWER(F12)="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>LOWER(F12)="closed"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>LOWER(F12)="close without comment"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -17222,17 +17415,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="14.640625" customWidth="1"/>
+    <col min="1" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -17240,7 +17433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -17248,7 +17441,7 @@
         <v>235411</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -17256,12 +17449,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>439</v>
       </c>
@@ -17302,7 +17495,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str" cm="1">
         <f t="array" ref="A9:A21">_xlfn.UNIQUE(Comments[Discipline])</f>
         <v>Mechanical</v>
@@ -17351,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Plumbing</v>
       </c>
@@ -17398,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Electrical</v>
       </c>
@@ -17445,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Communications</v>
       </c>
@@ -17492,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Cost Engineering</v>
       </c>
@@ -17539,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>General</v>
       </c>
@@ -17586,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Structural</v>
       </c>
@@ -17618,7 +17811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Sustainability</v>
       </c>
@@ -17650,7 +17843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Specifications</v>
       </c>
@@ -17682,7 +17875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Architectural</v>
       </c>
@@ -17714,7 +17907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Project Management</v>
       </c>
@@ -17746,7 +17939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Environmental</v>
       </c>
@@ -17778,7 +17971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Fire Protection/Life Safety</v>
       </c>
@@ -17811,7 +18004,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>441</v>
       </c>
@@ -17828,7 +18021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>448</v>
       </c>
@@ -17844,7 +18037,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="str" cm="1">
         <f t="array" ref="A28:L28">TRANSPOSE(_xlfn._xlws.FILTER($F$9:$F$20,$H$9:$H$20&gt;0))</f>
         <v>Yat Hung Chan</v>
@@ -17883,7 +18076,7 @@
         <v>Gregory Church</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" cm="1">
         <f t="array" ref="A29:A50">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Comments[ID],(Comments[Author]=A$28)*(Comments[Status]="Open"),""))</f>
         <v>10732362</v>
@@ -17933,7 +18126,7 @@
         <v>10788191</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10732364</v>
       </c>
@@ -17965,7 +18158,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10734405</v>
       </c>
@@ -17993,7 +18186,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10734477</v>
       </c>
@@ -18017,7 +18210,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>10736714</v>
       </c>
@@ -18041,7 +18234,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>10736770</v>
       </c>
@@ -18065,7 +18258,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>10736813</v>
       </c>
@@ -18089,7 +18282,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10736816</v>
       </c>
@@ -18113,7 +18306,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10736892</v>
       </c>
@@ -18137,7 +18330,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10739106</v>
       </c>
@@ -18159,7 +18352,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10742631</v>
       </c>
@@ -18181,7 +18374,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10742655</v>
       </c>
@@ -18203,7 +18396,7 @@
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10742675</v>
       </c>
@@ -18225,7 +18418,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10742722</v>
       </c>
@@ -18247,7 +18440,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10742737</v>
       </c>
@@ -18269,7 +18462,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10742759</v>
       </c>
@@ -18291,7 +18484,7 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10746894</v>
       </c>
@@ -18313,7 +18506,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10747151</v>
       </c>
@@ -18335,7 +18528,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>10747160</v>
       </c>
@@ -18353,7 +18546,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10755028</v>
       </c>
@@ -18371,7 +18564,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>10755088</v>
       </c>
@@ -18389,7 +18582,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>10755123</v>
       </c>
@@ -18407,7 +18600,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -18423,7 +18616,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benst\Documents\Workspace\DXR\dev\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD59E6D-7D68-4BE1-8055-EDB13F6458BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2362B290-20F9-4724-9E23-0ECE45E17330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-22875" yWindow="510" windowWidth="18885" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -6058,14 +6058,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>423</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>425</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>427</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>431</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>433</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="249.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="243" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>435</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6147,10 +6147,10 @@
   <dimension ref="A1:BC125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.15" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="27" customWidth="1"/>
     <col min="2" max="5" width="20.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -6160,10 +6160,10 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="20.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="50.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="20.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="20.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="50.5703125" customWidth="1"/>
     <col min="20" max="21" width="10.5703125" customWidth="1"/>
     <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" customWidth="1"/>
@@ -6196,7 +6196,7 @@
     <col min="55" max="55" width="8.5703125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>69848</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>511143</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>235411</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>45890.9062037037</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>45892.36142361111</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6459,7 +6459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>421</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="26" customFormat="1" ht="24.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:55" s="26" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>413</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="81" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>1</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="BA12" s="11"/>
       <c r="BB12" s="9"/>
     </row>
-    <row r="13" spans="1:55" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="BA13" s="15"/>
       <c r="BB13" s="13"/>
     </row>
-    <row r="14" spans="1:55" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="13"/>
     </row>
-    <row r="15" spans="1:55" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" ht="54" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>4</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="13"/>
     </row>
-    <row r="16" spans="1:55" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>5</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="13"/>
     </row>
-    <row r="17" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>6</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="BB17" s="13"/>
     </row>
-    <row r="18" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>7</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="BA18" s="15"/>
       <c r="BB18" s="13"/>
     </row>
-    <row r="19" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>8</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="BA19" s="15"/>
       <c r="BB19" s="13"/>
     </row>
-    <row r="20" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>9</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="BA20" s="15"/>
       <c r="BB20" s="13"/>
     </row>
-    <row r="21" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>10</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="BA21" s="15"/>
       <c r="BB21" s="13"/>
     </row>
-    <row r="22" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>11</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="13"/>
     </row>
-    <row r="23" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>12</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="BA23" s="15"/>
       <c r="BB23" s="13"/>
     </row>
-    <row r="24" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>13</v>
       </c>
@@ -8019,7 +8019,7 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="13"/>
     </row>
-    <row r="25" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>14</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="BA25" s="15"/>
       <c r="BB25" s="13"/>
     </row>
-    <row r="26" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>15</v>
       </c>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="BB26" s="13"/>
     </row>
-    <row r="27" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>16</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="BA27" s="15"/>
       <c r="BB27" s="13"/>
     </row>
-    <row r="28" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>17</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="13"/>
     </row>
-    <row r="29" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>18</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="BA29" s="15"/>
       <c r="BB29" s="13"/>
     </row>
-    <row r="30" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>19</v>
       </c>
@@ -8617,7 +8617,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="13"/>
     </row>
-    <row r="31" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>20</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="BA31" s="15"/>
       <c r="BB31" s="13"/>
     </row>
-    <row r="32" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>21</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="BA32" s="15"/>
       <c r="BB32" s="13"/>
     </row>
-    <row r="33" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>22</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="BB33" s="13"/>
     </row>
-    <row r="34" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>23</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="BA34" s="15"/>
       <c r="BB34" s="13"/>
     </row>
-    <row r="35" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>24</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="BA35" s="15"/>
       <c r="BB35" s="13"/>
     </row>
-    <row r="36" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>25</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="13"/>
     </row>
-    <row r="37" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>26</v>
       </c>
@@ -9323,7 +9323,7 @@
       <c r="BA37" s="15"/>
       <c r="BB37" s="13"/>
     </row>
-    <row r="38" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>27</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="13"/>
     </row>
-    <row r="39" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>28</v>
       </c>
@@ -9501,7 +9501,7 @@
       <c r="BA39" s="15"/>
       <c r="BB39" s="13"/>
     </row>
-    <row r="40" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>29</v>
       </c>
@@ -9589,7 +9589,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="13"/>
     </row>
-    <row r="41" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>30</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="BA41" s="15"/>
       <c r="BB41" s="13"/>
     </row>
-    <row r="42" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>31</v>
       </c>
@@ -9799,7 +9799,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="13"/>
     </row>
-    <row r="43" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>32</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="13"/>
     </row>
-    <row r="44" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>33</v>
       </c>
@@ -9991,7 +9991,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="13"/>
     </row>
-    <row r="45" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>34</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="13"/>
     </row>
-    <row r="46" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
         <v>35</v>
       </c>
@@ -10183,7 +10183,7 @@
       <c r="BA46" s="15"/>
       <c r="BB46" s="13"/>
     </row>
-    <row r="47" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>36</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="BA47" s="15"/>
       <c r="BB47" s="13"/>
     </row>
-    <row r="48" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>37</v>
       </c>
@@ -10359,7 +10359,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="13"/>
     </row>
-    <row r="49" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>38</v>
       </c>
@@ -10447,7 +10447,7 @@
       <c r="BA49" s="15"/>
       <c r="BB49" s="13"/>
     </row>
-    <row r="50" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>39</v>
       </c>
@@ -10535,7 +10535,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="13"/>
     </row>
-    <row r="51" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
         <v>40</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="BA51" s="15"/>
       <c r="BB51" s="13"/>
     </row>
-    <row r="52" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
         <v>41</v>
       </c>
@@ -10713,7 +10713,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="13"/>
     </row>
-    <row r="53" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>42</v>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="BA53" s="15"/>
       <c r="BB53" s="13"/>
     </row>
-    <row r="54" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
         <v>43</v>
       </c>
@@ -10893,7 +10893,7 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="13"/>
     </row>
-    <row r="55" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>44</v>
       </c>
@@ -10985,7 +10985,7 @@
       <c r="BA55" s="15"/>
       <c r="BB55" s="13"/>
     </row>
-    <row r="56" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
         <v>45</v>
       </c>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="BB56" s="13"/>
     </row>
-    <row r="57" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>46</v>
       </c>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="BB57" s="13"/>
     </row>
-    <row r="58" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>47</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="BA58" s="15"/>
       <c r="BB58" s="13"/>
     </row>
-    <row r="59" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>48</v>
       </c>
@@ -11435,7 +11435,7 @@
       <c r="BA59" s="15"/>
       <c r="BB59" s="13"/>
     </row>
-    <row r="60" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>49</v>
       </c>
@@ -11527,7 +11527,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="13"/>
     </row>
-    <row r="61" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>50</v>
       </c>
@@ -11615,7 +11615,7 @@
       <c r="BA61" s="15"/>
       <c r="BB61" s="13"/>
     </row>
-    <row r="62" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>51</v>
       </c>
@@ -11703,7 +11703,7 @@
       <c r="BA62" s="15"/>
       <c r="BB62" s="13"/>
     </row>
-    <row r="63" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
         <v>52</v>
       </c>
@@ -11791,7 +11791,7 @@
       <c r="BA63" s="15"/>
       <c r="BB63" s="13"/>
     </row>
-    <row r="64" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
         <v>53</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="13"/>
     </row>
-    <row r="65" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
         <v>54</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="BA65" s="15"/>
       <c r="BB65" s="13"/>
     </row>
-    <row r="66" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
         <v>55</v>
       </c>
@@ -12051,7 +12051,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="13"/>
     </row>
-    <row r="67" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>56</v>
       </c>
@@ -12139,7 +12139,7 @@
       <c r="BA67" s="15"/>
       <c r="BB67" s="13"/>
     </row>
-    <row r="68" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>57</v>
       </c>
@@ -12225,7 +12225,7 @@
       <c r="BA68" s="15"/>
       <c r="BB68" s="13"/>
     </row>
-    <row r="69" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="31">
         <v>58</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="BA69" s="15"/>
       <c r="BB69" s="13"/>
     </row>
-    <row r="70" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
         <v>59</v>
       </c>
@@ -12401,7 +12401,7 @@
       <c r="BA70" s="15"/>
       <c r="BB70" s="13"/>
     </row>
-    <row r="71" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
         <v>60</v>
       </c>
@@ -12489,7 +12489,7 @@
       <c r="BA71" s="15"/>
       <c r="BB71" s="13"/>
     </row>
-    <row r="72" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
         <v>61</v>
       </c>
@@ -12577,7 +12577,7 @@
       <c r="BA72" s="15"/>
       <c r="BB72" s="13"/>
     </row>
-    <row r="73" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
         <v>62</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="BA73" s="15"/>
       <c r="BB73" s="13"/>
     </row>
-    <row r="74" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <v>63</v>
       </c>
@@ -12755,7 +12755,7 @@
       <c r="BA74" s="15"/>
       <c r="BB74" s="13"/>
     </row>
-    <row r="75" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
         <v>64</v>
       </c>
@@ -12849,7 +12849,7 @@
       <c r="BA75" s="15"/>
       <c r="BB75" s="13"/>
     </row>
-    <row r="76" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31">
         <v>65</v>
       </c>
@@ -12941,7 +12941,7 @@
       <c r="BA76" s="15"/>
       <c r="BB76" s="13"/>
     </row>
-    <row r="77" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31">
         <v>66</v>
       </c>
@@ -13033,7 +13033,7 @@
       <c r="BA77" s="15"/>
       <c r="BB77" s="13"/>
     </row>
-    <row r="78" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31">
         <v>67</v>
       </c>
@@ -13125,7 +13125,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="13"/>
     </row>
-    <row r="79" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A79" s="31">
         <v>68</v>
       </c>
@@ -13215,7 +13215,7 @@
       <c r="BA79" s="15"/>
       <c r="BB79" s="13"/>
     </row>
-    <row r="80" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>69</v>
       </c>
@@ -13303,7 +13303,7 @@
       <c r="BA80" s="15"/>
       <c r="BB80" s="13"/>
     </row>
-    <row r="81" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>70</v>
       </c>
@@ -13399,7 +13399,7 @@
       <c r="BA81" s="15"/>
       <c r="BB81" s="13"/>
     </row>
-    <row r="82" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
         <v>71</v>
       </c>
@@ -13495,7 +13495,7 @@
       <c r="BA82" s="15"/>
       <c r="BB82" s="13"/>
     </row>
-    <row r="83" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>72</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="BA83" s="15"/>
       <c r="BB83" s="13"/>
     </row>
-    <row r="84" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>73</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="BA84" s="15"/>
       <c r="BB84" s="13"/>
     </row>
-    <row r="85" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <v>74</v>
       </c>
@@ -13779,7 +13779,7 @@
       <c r="BA85" s="15"/>
       <c r="BB85" s="13"/>
     </row>
-    <row r="86" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <v>75</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="BA86" s="15"/>
       <c r="BB86" s="13"/>
     </row>
-    <row r="87" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
         <v>76</v>
       </c>
@@ -13953,7 +13953,7 @@
       <c r="BA87" s="15"/>
       <c r="BB87" s="13"/>
     </row>
-    <row r="88" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
         <v>77</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="BA88" s="15"/>
       <c r="BB88" s="13"/>
     </row>
-    <row r="89" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>78</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="BA89" s="15"/>
       <c r="BB89" s="13"/>
     </row>
-    <row r="90" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <v>79</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="BA90" s="15"/>
       <c r="BB90" s="13"/>
     </row>
-    <row r="91" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
         <v>80</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="BA91" s="15"/>
       <c r="BB91" s="13"/>
     </row>
-    <row r="92" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>81</v>
       </c>
@@ -14385,7 +14385,7 @@
       <c r="BA92" s="15"/>
       <c r="BB92" s="13"/>
     </row>
-    <row r="93" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A93" s="31">
         <v>82</v>
       </c>
@@ -14471,7 +14471,7 @@
       <c r="BA93" s="15"/>
       <c r="BB93" s="13"/>
     </row>
-    <row r="94" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A94" s="31">
         <v>83</v>
       </c>
@@ -14557,7 +14557,7 @@
       <c r="BA94" s="15"/>
       <c r="BB94" s="13"/>
     </row>
-    <row r="95" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A95" s="31">
         <v>84</v>
       </c>
@@ -14647,7 +14647,7 @@
       <c r="BA95" s="15"/>
       <c r="BB95" s="13"/>
     </row>
-    <row r="96" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A96" s="31">
         <v>85</v>
       </c>
@@ -14735,7 +14735,7 @@
       <c r="BA96" s="15"/>
       <c r="BB96" s="13"/>
     </row>
-    <row r="97" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
         <v>86</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="BA97" s="15"/>
       <c r="BB97" s="13"/>
     </row>
-    <row r="98" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="31">
         <v>87</v>
       </c>
@@ -14907,7 +14907,7 @@
       <c r="BA98" s="15"/>
       <c r="BB98" s="13"/>
     </row>
-    <row r="99" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
         <v>88</v>
       </c>
@@ -14993,7 +14993,7 @@
       <c r="BA99" s="15"/>
       <c r="BB99" s="13"/>
     </row>
-    <row r="100" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="31">
         <v>89</v>
       </c>
@@ -15079,7 +15079,7 @@
       <c r="BA100" s="15"/>
       <c r="BB100" s="13"/>
     </row>
-    <row r="101" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A101" s="31">
         <v>90</v>
       </c>
@@ -15165,7 +15165,7 @@
       <c r="BA101" s="15"/>
       <c r="BB101" s="13"/>
     </row>
-    <row r="102" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="31">
         <v>91</v>
       </c>
@@ -15251,7 +15251,7 @@
       <c r="BA102" s="15"/>
       <c r="BB102" s="13"/>
     </row>
-    <row r="103" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
         <v>92</v>
       </c>
@@ -15337,7 +15337,7 @@
       <c r="BA103" s="15"/>
       <c r="BB103" s="13"/>
     </row>
-    <row r="104" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="31">
         <v>93</v>
       </c>
@@ -15423,7 +15423,7 @@
       <c r="BA104" s="15"/>
       <c r="BB104" s="13"/>
     </row>
-    <row r="105" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31">
         <v>94</v>
       </c>
@@ -15509,7 +15509,7 @@
       <c r="BA105" s="15"/>
       <c r="BB105" s="13"/>
     </row>
-    <row r="106" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A106" s="31">
         <v>95</v>
       </c>
@@ -15595,7 +15595,7 @@
       <c r="BA106" s="15"/>
       <c r="BB106" s="13"/>
     </row>
-    <row r="107" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31">
         <v>96</v>
       </c>
@@ -15681,7 +15681,7 @@
       <c r="BA107" s="15"/>
       <c r="BB107" s="13"/>
     </row>
-    <row r="108" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A108" s="31">
         <v>97</v>
       </c>
@@ -15777,7 +15777,7 @@
       <c r="BA108" s="15"/>
       <c r="BB108" s="13"/>
     </row>
-    <row r="109" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="31">
         <v>98</v>
       </c>
@@ -15867,7 +15867,7 @@
       <c r="BA109" s="15"/>
       <c r="BB109" s="13"/>
     </row>
-    <row r="110" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A110" s="31">
         <v>99</v>
       </c>
@@ -15957,7 +15957,7 @@
       <c r="BA110" s="15"/>
       <c r="BB110" s="13"/>
     </row>
-    <row r="111" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A111" s="31">
         <v>100</v>
       </c>
@@ -16047,7 +16047,7 @@
       <c r="BA111" s="15"/>
       <c r="BB111" s="13"/>
     </row>
-    <row r="112" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A112" s="31">
         <v>101</v>
       </c>
@@ -16137,7 +16137,7 @@
       <c r="BA112" s="15"/>
       <c r="BB112" s="13"/>
     </row>
-    <row r="113" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A113" s="31">
         <v>102</v>
       </c>
@@ -16225,7 +16225,7 @@
       <c r="BA113" s="15"/>
       <c r="BB113" s="13"/>
     </row>
-    <row r="114" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="31">
         <v>103</v>
       </c>
@@ -16311,7 +16311,7 @@
       <c r="BA114" s="15"/>
       <c r="BB114" s="13"/>
     </row>
-    <row r="115" spans="1:54" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:54" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
         <v>104</v>
       </c>
@@ -16397,7 +16397,7 @@
       <c r="BA115" s="15"/>
       <c r="BB115" s="13"/>
     </row>
-    <row r="116" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
         <v>105</v>
       </c>
@@ -16497,7 +16497,7 @@
       <c r="BA116" s="15"/>
       <c r="BB116" s="13"/>
     </row>
-    <row r="117" spans="1:54" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:54" ht="54" x14ac:dyDescent="0.25">
       <c r="A117" s="31">
         <v>106</v>
       </c>
@@ -16589,7 +16589,7 @@
       <c r="BA117" s="15"/>
       <c r="BB117" s="13"/>
     </row>
-    <row r="118" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="31">
         <v>107</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="BA118" s="15"/>
       <c r="BB118" s="13"/>
     </row>
-    <row r="119" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="31">
         <v>108</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="BA119" s="15"/>
       <c r="BB119" s="13"/>
     </row>
-    <row r="120" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A120" s="31">
         <v>109</v>
       </c>
@@ -16861,7 +16861,7 @@
       <c r="BA120" s="15"/>
       <c r="BB120" s="13"/>
     </row>
-    <row r="121" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31">
         <v>110</v>
       </c>
@@ -16949,7 +16949,7 @@
       <c r="BA121" s="15"/>
       <c r="BB121" s="13"/>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="31">
         <v>111</v>
       </c>
@@ -17035,7 +17035,7 @@
       <c r="BA122" s="15"/>
       <c r="BB122" s="13"/>
     </row>
-    <row r="123" spans="1:54" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:54" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
         <v>112</v>
       </c>
@@ -17121,7 +17121,7 @@
       <c r="BA123" s="15"/>
       <c r="BB123" s="13"/>
     </row>
-    <row r="124" spans="1:54" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:54" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A124" s="31">
         <v>113</v>
       </c>
@@ -17221,7 +17221,7 @@
       <c r="BA124" s="15"/>
       <c r="BB124" s="13"/>
     </row>
-    <row r="125" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:54" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32">
         <v>114</v>
       </c>
@@ -17393,7 +17393,7 @@
       <formula>LOWER(X12:X125)="concur"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Disallowed Input" error="Please select from the options: Concur, Non-concur, For Information Only, Check and Resolve, Open, Closed, Close without Comment" sqref="F12:F125" xr:uid="{815978C1-9DFF-4435-81E4-41510438B2E0}">
       <formula1>"Concur, Non-concur, For Information Only, Check and Resolve, Open, Closed, Close without Comment"</formula1>
     </dataValidation>
@@ -17414,17 +17414,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>235411</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -17448,12 +17448,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>439</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str" cm="1">
         <f t="array" ref="A9:A21">_xlfn.UNIQUE(Comments[Discipline])</f>
         <v>Mechanical</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Plumbing</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Electrical</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Communications</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Cost Engineering</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>General</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Structural</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Sustainability</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Specifications</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Architectural</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Project Management</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Environmental</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Fire Protection/Life Safety</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>441</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>448</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="str" cm="1">
         <f t="array" ref="A28:L28">TRANSPOSE(_xlfn._xlws.FILTER($F$9:$F$20,$H$9:$H$20&gt;0))</f>
         <v>Yat Hung Chan</v>
@@ -18075,7 +18075,7 @@
         <v>Gregory Church</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" cm="1">
         <f t="array" ref="A29:A50">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Comments[ID],(Comments[Author]=A$28)*(Comments[Status]="Open"),""))</f>
         <v>10732362</v>
@@ -18125,7 +18125,7 @@
         <v>10788191</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10732364</v>
       </c>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10734405</v>
       </c>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10734477</v>
       </c>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>10736714</v>
       </c>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>10736770</v>
       </c>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>10736813</v>
       </c>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10736816</v>
       </c>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10736892</v>
       </c>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10739106</v>
       </c>
@@ -18351,7 +18351,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10742631</v>
       </c>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10742655</v>
       </c>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10742675</v>
       </c>
@@ -18417,7 +18417,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10742722</v>
       </c>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10742737</v>
       </c>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10742759</v>
       </c>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10746894</v>
       </c>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10747151</v>
       </c>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>10747160</v>
       </c>
@@ -18545,7 +18545,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10755028</v>
       </c>
@@ -18563,7 +18563,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>10755088</v>
       </c>
@@ -18581,7 +18581,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>10755123</v>
       </c>
@@ -18599,7 +18599,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -18615,7 +18615,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2362B290-20F9-4724-9E23-0ECE45E17330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04DB2C-F696-403E-BDD1-7B7A1BDDC004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22875" yWindow="510" windowWidth="18885" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="449">
   <si>
     <t>Project ID</t>
   </si>
@@ -6147,33 +6147,32 @@
   <dimension ref="A1:BC125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="27" customWidth="1"/>
-    <col min="2" max="5" width="20.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="2" max="5" width="20.5703125" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.5703125" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.5703125" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="20.5703125" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="50.5703125" customWidth="1"/>
+    <col min="14" max="15" width="20.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="20.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="50.5703125" customWidth="1" collapsed="1"/>
     <col min="20" max="21" width="10.5703125" customWidth="1"/>
     <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="11.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="50.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="8.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="11.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="50.5703125" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="11.85546875" style="6" customWidth="1"/>
     <col min="32" max="32" width="20.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="34" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="50.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -6253,8 +6252,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>7</v>
+      <c r="H8" s="1">
+        <f>COLUMN()</f>
+        <v>8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="S8" s="2">

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04DB2C-F696-403E-BDD1-7B7A1BDDC004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B100B0-6FA9-454F-99D4-5410DBC698E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -6146,17 +6146,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4E718-BA54-47DB-93F0-23D23B2960D1}">
   <dimension ref="A1:BC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="27" customWidth="1"/>
-    <col min="2" max="5" width="20.5703125" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.5703125" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.5703125" style="27" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="10.5703125" customWidth="1"/>
+    <col min="2" max="5" width="20.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.5703125" style="27" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="13" width="10.5703125" customWidth="1"/>
     <col min="14" max="15" width="20.5703125" style="6" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -6235,21 +6236,287 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="5">
         <v>45890.9062037037</v>
       </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="Y6" s="7">
+        <f>MOD((Y7-25),6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" ref="Z6:BC6" si="0">MOD((Z7-25),6)</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AK6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AN6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AO6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AP6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AT6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AU6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AW6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BA6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BB6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BC6" s="7"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="5">
         <v>45892.36142361111</v>
       </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="Y7" s="7">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA7" s="7">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB7" s="7">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC7" s="7">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+      <c r="AD7" s="7">
+        <f>COLUMN()</f>
+        <v>30</v>
+      </c>
+      <c r="AE7" s="7">
+        <f>COLUMN()</f>
+        <v>31</v>
+      </c>
+      <c r="AF7" s="7">
+        <f>COLUMN()</f>
+        <v>32</v>
+      </c>
+      <c r="AG7" s="7">
+        <f>COLUMN()</f>
+        <v>33</v>
+      </c>
+      <c r="AH7" s="7">
+        <f>COLUMN()</f>
+        <v>34</v>
+      </c>
+      <c r="AI7" s="7">
+        <f>COLUMN()</f>
+        <v>35</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f>COLUMN()</f>
+        <v>36</v>
+      </c>
+      <c r="AK7" s="7">
+        <f>COLUMN()</f>
+        <v>37</v>
+      </c>
+      <c r="AL7" s="7">
+        <f>COLUMN()</f>
+        <v>38</v>
+      </c>
+      <c r="AM7" s="7">
+        <f>COLUMN()</f>
+        <v>39</v>
+      </c>
+      <c r="AN7" s="7">
+        <f>COLUMN()</f>
+        <v>40</v>
+      </c>
+      <c r="AO7" s="7">
+        <f>COLUMN()</f>
+        <v>41</v>
+      </c>
+      <c r="AP7" s="7">
+        <f>COLUMN()</f>
+        <v>42</v>
+      </c>
+      <c r="AQ7" s="7">
+        <f>COLUMN()</f>
+        <v>43</v>
+      </c>
+      <c r="AR7" s="7">
+        <f>COLUMN()</f>
+        <v>44</v>
+      </c>
+      <c r="AS7" s="7">
+        <f>COLUMN()</f>
+        <v>45</v>
+      </c>
+      <c r="AT7" s="7">
+        <f>COLUMN()</f>
+        <v>46</v>
+      </c>
+      <c r="AU7" s="7">
+        <f>COLUMN()</f>
+        <v>47</v>
+      </c>
+      <c r="AV7" s="7">
+        <f>COLUMN()</f>
+        <v>48</v>
+      </c>
+      <c r="AW7" s="7">
+        <f>COLUMN()</f>
+        <v>49</v>
+      </c>
+      <c r="AX7" s="7">
+        <f>COLUMN()</f>
+        <v>50</v>
+      </c>
+      <c r="AY7" s="7">
+        <f>COLUMN()</f>
+        <v>51</v>
+      </c>
+      <c r="AZ7" s="7">
+        <f>COLUMN()</f>
+        <v>52</v>
+      </c>
+      <c r="BA7" s="7">
+        <f>COLUMN()</f>
+        <v>53</v>
+      </c>
+      <c r="BB7" s="7">
+        <f>COLUMN()</f>
+        <v>54</v>
+      </c>
+      <c r="BC7" s="7"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H8" s="1">
@@ -6275,187 +6542,187 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" ref="I9:BB9" si="0">COLUMN()-7</f>
+        <f t="shared" ref="I9:BB9" si="1">COLUMN()-7</f>
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AI9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="AS9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="AT9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AU9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AV9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="AW9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="AX9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="AY9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="AZ9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="BA9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="BB9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B100B0-6FA9-454F-99D4-5410DBC698E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D05D64-C2FF-415D-BBD8-D0097F4D8734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -6147,7 +6147,7 @@
   <dimension ref="A1:BC125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <f t="shared" ref="Z6:BC6" si="0">MOD((Z7-25),6)</f>
+        <f t="shared" ref="Z6:BB6" si="0">MOD((Z7-25),6)</f>
         <v>1</v>
       </c>
       <c r="AA6" s="7">

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D05D64-C2FF-415D-BBD8-D0097F4D8734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444350F-D726-4187-B2D7-7F7E4369269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="1" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="2" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -6146,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4E718-BA54-47DB-93F0-23D23B2960D1}">
   <dimension ref="A1:BC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -17679,7 +17679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D31DE-3C40-4D5F-B68A-4433202AB5A7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
+++ b/dev/test/DrChecks Summary Report 2025-08-23 08-40-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2ee9bsf\Documents\00 Workspace\DXR\dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444350F-D726-4187-B2D7-7F7E4369269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C0FC15-64FC-44C7-8DA2-75479272DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15690" firstSheet="1" activeTab="2" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{CD69AF63-673A-4A3A-B620-14A1D2939C02}"/>
   </bookViews>
   <sheets>
     <sheet name="DevInfo" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -6058,7 +6058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
@@ -6146,7 +6146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4E718-BA54-47DB-93F0-23D23B2960D1}">
   <dimension ref="A1:BC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -17680,7 +17680,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -17800,7 +17800,7 @@
         <v>63</v>
       </c>
       <c r="M9">
-        <f>COUNTIFS(Comments[Highest Resp.],$K9,Comments[Status],L$8)</f>
+        <f>COUNTIFS(Comments[Highest Resp.],$L9,Comments[Status],L$8)</f>
         <v>0</v>
       </c>
       <c r="N9">
